--- a/sala_aula_h_06.xlsx
+++ b/sala_aula_h_06.xlsx
@@ -321,8 +321,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>170128.0</v>
+      <c r="A10" s="3">
+        <v>170198.0</v>
       </c>
     </row>
     <row r="11">
@@ -346,13 +346,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1">
-        <v>170200.0</v>
+      <c r="A15" s="3">
+        <v>170222.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1">
-        <v>170060.0</v>
+      <c r="A16" s="3">
+        <v>170067.0</v>
       </c>
     </row>
     <row r="17">
